--- a/team_specific_matrix/UT Martin_B.xlsx
+++ b/team_specific_matrix/UT Martin_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1789473684210526</v>
+        <v>0.1846846846846847</v>
       </c>
       <c r="C2">
-        <v>0.5631578947368421</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005263157894736842</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1526315789473684</v>
+        <v>0.1396396396396396</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0.09009009009009009</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03478260869565217</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C3">
-        <v>0.05217391304347826</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03478260869565217</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6869565217391305</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.191304347826087</v>
+        <v>0.1911764705882353</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7096774193548387</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2580645161290323</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0440251572327044</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02515723270440252</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03773584905660377</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2452830188679245</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02515723270440252</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.169811320754717</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R6">
-        <v>0.1069182389937107</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="S6">
-        <v>0.3459119496855346</v>
+        <v>0.3563829787234042</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04787234042553191</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005319148936170213</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="F7">
-        <v>0.0425531914893617</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1276595744680851</v>
+        <v>0.1345291479820628</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01063829787234043</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1595744680851064</v>
+        <v>0.1569506726457399</v>
       </c>
       <c r="R7">
-        <v>0.09042553191489362</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="S7">
-        <v>0.5159574468085106</v>
+        <v>0.5112107623318386</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05494505494505494</v>
+        <v>0.04811715481171548</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01648351648351648</v>
+        <v>0.01464435146443515</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04120879120879121</v>
+        <v>0.03765690376569038</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1181318681318681</v>
+        <v>0.1171548117154812</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02472527472527472</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1785714285714286</v>
+        <v>0.1799163179916318</v>
       </c>
       <c r="R8">
-        <v>0.1291208791208791</v>
+        <v>0.1317991631799163</v>
       </c>
       <c r="S8">
-        <v>0.4368131868131868</v>
+        <v>0.4497907949790795</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1032608695652174</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0108695652173913</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05978260869565218</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1032608695652174</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01630434782608696</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1793478260869565</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="R9">
-        <v>0.1304347826086956</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="S9">
-        <v>0.3967391304347826</v>
+        <v>0.4292035398230089</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09004739336492891</v>
+        <v>0.08689024390243902</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01706161137440758</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E10">
-        <v>0.0009478672985781991</v>
+        <v>0.0007621951219512195</v>
       </c>
       <c r="F10">
-        <v>0.06445497630331753</v>
+        <v>0.0625</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1203791469194313</v>
+        <v>0.118140243902439</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01327014218009479</v>
+        <v>0.01448170731707317</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2151658767772512</v>
+        <v>0.211890243902439</v>
       </c>
       <c r="R10">
-        <v>0.08056872037914692</v>
+        <v>0.08231707317073171</v>
       </c>
       <c r="S10">
-        <v>0.3981042654028436</v>
+        <v>0.4047256097560976</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1503759398496241</v>
+        <v>0.143312101910828</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07518796992481203</v>
+        <v>0.0732484076433121</v>
       </c>
       <c r="K11">
-        <v>0.2218045112781955</v>
+        <v>0.213375796178344</v>
       </c>
       <c r="L11">
-        <v>0.5338345864661654</v>
+        <v>0.5509554140127388</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01879699248120301</v>
+        <v>0.01910828025477707</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.825503355704698</v>
+        <v>0.8342541436464088</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1006711409395973</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="K12">
-        <v>0.006711409395973154</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="L12">
-        <v>0.04697986577181208</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02013422818791946</v>
+        <v>0.02209944751381215</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7209302325581395</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2558139534883721</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01212121212121212</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1575757575757576</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="I15">
-        <v>0.07272727272727272</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="J15">
-        <v>0.3696969696969697</v>
+        <v>0.3811881188118812</v>
       </c>
       <c r="K15">
-        <v>0.05454545454545454</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02424242424242424</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05454545454545454</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2545454545454545</v>
+        <v>0.2475247524752475</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03174603174603174</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1746031746031746</v>
+        <v>0.18</v>
       </c>
       <c r="I16">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.4126984126984127</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1031746031746032</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04761904761904762</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03174603174603174</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0873015873015873</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01842105263157895</v>
+        <v>0.02123142250530785</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1657894736842105</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="I17">
-        <v>0.1157894736842105</v>
+        <v>0.1125265392781316</v>
       </c>
       <c r="J17">
-        <v>0.418421052631579</v>
+        <v>0.4246284501061571</v>
       </c>
       <c r="K17">
-        <v>0.09473684210526316</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03421052631578948</v>
+        <v>0.02760084925690021</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05</v>
+        <v>0.05307855626326964</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1026315789473684</v>
+        <v>0.09341825902335456</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02083333333333333</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1822916666666667</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="I18">
-        <v>0.07291666666666667</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="J18">
-        <v>0.421875</v>
+        <v>0.4243697478991597</v>
       </c>
       <c r="K18">
-        <v>0.078125</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01041666666666667</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="N18">
-        <v>0.005208333333333333</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="O18">
-        <v>0.08333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01182893539581438</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2038216560509554</v>
+        <v>0.2155297532656023</v>
       </c>
       <c r="I19">
-        <v>0.09372156505914468</v>
+        <v>0.08998548621190131</v>
       </c>
       <c r="J19">
-        <v>0.3721565059144677</v>
+        <v>0.3701015965166908</v>
       </c>
       <c r="K19">
-        <v>0.1210191082802548</v>
+        <v>0.113933236574746</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0172884440400364</v>
+        <v>0.0181422351233672</v>
       </c>
       <c r="N19">
-        <v>0.001819836214740673</v>
+        <v>0.001451378809869376</v>
       </c>
       <c r="O19">
-        <v>0.06005459508644222</v>
+        <v>0.06168359941944847</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1182893539581438</v>
+        <v>0.1197387518142235</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UT Martin_B.xlsx
+++ b/team_specific_matrix/UT Martin_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1846846846846847</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="C2">
-        <v>0.5765765765765766</v>
+        <v>0.5912698412698413</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009009009009009009</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1396396396396396</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09009009009009009</v>
+        <v>0.0873015873015873</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02941176470588235</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C3">
-        <v>0.04411764705882353</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03676470588235294</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6985294117647058</v>
+        <v>0.689873417721519</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1911764705882353</v>
+        <v>0.2025316455696203</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.717948717948718</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2564102564102564</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04787234042553191</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02659574468085106</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03723404255319149</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2340425531914894</v>
+        <v>0.2296650717703349</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02127659574468085</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1702127659574468</v>
+        <v>0.1770334928229665</v>
       </c>
       <c r="R6">
-        <v>0.1063829787234043</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="S6">
-        <v>0.3563829787234042</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04484304932735426</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004484304932735426</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="E7">
-        <v>0.004484304932735426</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="F7">
-        <v>0.04484304932735426</v>
+        <v>0.04230769230769231</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1345291479820628</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008968609865470852</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1569506726457399</v>
+        <v>0.1653846153846154</v>
       </c>
       <c r="R7">
-        <v>0.08968609865470852</v>
+        <v>0.08846153846153847</v>
       </c>
       <c r="S7">
-        <v>0.5112107623318386</v>
+        <v>0.4961538461538462</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04811715481171548</v>
+        <v>0.0562015503875969</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01464435146443515</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03765690376569038</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1171548117154812</v>
+        <v>0.1143410852713178</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02092050209205021</v>
+        <v>0.02131782945736434</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1799163179916318</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="R8">
-        <v>0.1317991631799163</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="S8">
-        <v>0.4497907949790795</v>
+        <v>0.4573643410852713</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.084070796460177</v>
+        <v>0.08203125</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008849557522123894</v>
+        <v>0.0078125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05309734513274336</v>
+        <v>0.046875</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1106194690265487</v>
+        <v>0.10546875</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01327433628318584</v>
+        <v>0.015625</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1858407079646018</v>
+        <v>0.19921875</v>
       </c>
       <c r="R9">
-        <v>0.1150442477876106</v>
+        <v>0.109375</v>
       </c>
       <c r="S9">
-        <v>0.4292035398230089</v>
+        <v>0.43359375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08689024390243902</v>
+        <v>0.08852005532503458</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01829268292682927</v>
+        <v>0.01798063623789765</v>
       </c>
       <c r="E10">
-        <v>0.0007621951219512195</v>
+        <v>0.0006915629322268327</v>
       </c>
       <c r="F10">
-        <v>0.0625</v>
+        <v>0.06500691562932227</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.118140243902439</v>
+        <v>0.1154910096818811</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01448170731707317</v>
+        <v>0.01452282157676349</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.211890243902439</v>
+        <v>0.210926694329184</v>
       </c>
       <c r="R10">
-        <v>0.08231707317073171</v>
+        <v>0.08644536652835408</v>
       </c>
       <c r="S10">
-        <v>0.4047256097560976</v>
+        <v>0.4004149377593361</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.143312101910828</v>
+        <v>0.1359773371104816</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0732484076433121</v>
+        <v>0.06515580736543909</v>
       </c>
       <c r="K11">
-        <v>0.213375796178344</v>
+        <v>0.1954674220963173</v>
       </c>
       <c r="L11">
-        <v>0.5509554140127388</v>
+        <v>0.5864022662889519</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01910828025477707</v>
+        <v>0.0169971671388102</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8342541436464088</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09944751381215469</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="K12">
-        <v>0.005524861878453038</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="L12">
-        <v>0.03867403314917127</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02209944751381215</v>
+        <v>0.02314814814814815</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6938775510204082</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2653061224489796</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009900990099009901</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1683168316831683</v>
+        <v>0.1572052401746725</v>
       </c>
       <c r="I15">
-        <v>0.07425742574257425</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="J15">
-        <v>0.3811881188118812</v>
+        <v>0.3930131004366812</v>
       </c>
       <c r="K15">
-        <v>0.05445544554455446</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0198019801980198</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04455445544554455</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2475247524752475</v>
+        <v>0.2489082969432314</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02666666666666667</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.18</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="J16">
-        <v>0.4333333333333333</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="K16">
-        <v>0.1133333333333333</v>
+        <v>0.1265060240963855</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02666666666666667</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08</v>
+        <v>0.09036144578313253</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02123142250530785</v>
+        <v>0.02095238095238095</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.178343949044586</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="I17">
-        <v>0.1125265392781316</v>
+        <v>0.1123809523809524</v>
       </c>
       <c r="J17">
-        <v>0.4246284501061571</v>
+        <v>0.4228571428571429</v>
       </c>
       <c r="K17">
-        <v>0.08917197452229299</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02760084925690021</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05307855626326964</v>
+        <v>0.05523809523809524</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09341825902335456</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01680672268907563</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1848739495798319</v>
+        <v>0.1800766283524904</v>
       </c>
       <c r="I18">
-        <v>0.09243697478991597</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="J18">
-        <v>0.4243697478991597</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K18">
-        <v>0.07983193277310924</v>
+        <v>0.08812260536398467</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008403361344537815</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="N18">
-        <v>0.004201680672268907</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="O18">
-        <v>0.07142857142857142</v>
+        <v>0.07279693486590039</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1176470588235294</v>
+        <v>0.1226053639846743</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009433962264150943</v>
+        <v>0.01049868766404199</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2155297532656023</v>
+        <v>0.2106299212598425</v>
       </c>
       <c r="I19">
-        <v>0.08998548621190131</v>
+        <v>0.09448818897637795</v>
       </c>
       <c r="J19">
-        <v>0.3701015965166908</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="K19">
-        <v>0.113933236574746</v>
+        <v>0.1161417322834646</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0181422351233672</v>
+        <v>0.01837270341207349</v>
       </c>
       <c r="N19">
-        <v>0.001451378809869376</v>
+        <v>0.001312335958005249</v>
       </c>
       <c r="O19">
-        <v>0.06168359941944847</v>
+        <v>0.06233595800524935</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1197387518142235</v>
+        <v>0.1161417322834646</v>
       </c>
     </row>
   </sheetData>
